--- a/lib/exps/couch_2022_dme_all_temps.xlsx
+++ b/lib/exps/couch_2022_dme_all_temps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/exps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63E17C0-9976-9B4F-A8A5-5FD060C7EA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB89FC52-1384-1048-A79E-42951BEAC34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51900" yWindow="10240" windowWidth="14560" windowHeight="15760" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
   </bookViews>
@@ -628,7 +628,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lib/exps/couch_2022_dme_all_temps.xlsx
+++ b/lib/exps/couch_2022_dme_all_temps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/exps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB89FC52-1384-1048-A79E-42951BEAC34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7865541C-4CD5-314D-BE5E-DECCA8D63BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51900" yWindow="10240" windowWidth="14560" windowHeight="15760" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
+    <workbookView xWindow="43860" yWindow="8120" windowWidth="22600" windowHeight="17880" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>parameter</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>ignore_row</t>
+  </si>
+  <si>
+    <t>THIS FILE IS DESIGNED FOR RUNNING SENSITIVITIES WITH AN AVERAGE MIXTURE</t>
   </si>
 </sst>
 </file>
@@ -625,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E566FD-7BF3-F74E-98A5-DE111CAFB7E0}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1269,6 +1272,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
